--- a/Fulton Hogan NZ/39189/struct.xlsx
+++ b/Fulton Hogan NZ/39189/struct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan NZ\39189\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190172D-F8D0-4F40-A248-7EF02F379FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CF3592-ED89-4106-8150-4B3FB2B342EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="540" windowWidth="26730" windowHeight="18570" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="3945" yWindow="1050" windowWidth="26730" windowHeight="18570" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>resource</t>
   </si>
@@ -59,6 +59,45 @@
   </si>
   <si>
     <t>Tier 9</t>
+  </si>
+  <si>
+    <t>ITP - Opaheke/Chapel St - Enabling Works - Footpath, Kerb and channel, Vehicle Crossing, Pram Crossing</t>
+  </si>
+  <si>
+    <t>ITP - Opaheke/Chapel St - Stormwater Drainage</t>
+  </si>
+  <si>
+    <t>ITP - Opaheke/Chapel St - Pavement</t>
+  </si>
+  <si>
+    <t>ITP - Opaheke/Chapel St - Traffic Islands</t>
+  </si>
+  <si>
+    <t>ITP - Opaheke/Chapel St - Roundabout and Apron</t>
+  </si>
+  <si>
+    <t>ITP - Opaheke/Chapel St - Signage</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>ITP - Enabling Works - Footpath, Kerb and channel, Vehicle Crossing, Pram Crossing</t>
+  </si>
+  <si>
+    <t>ITP - Stormwater Drainage</t>
+  </si>
+  <si>
+    <t>ITP - Pavement</t>
+  </si>
+  <si>
+    <t>ITP - Traffic Islands</t>
+  </si>
+  <si>
+    <t>ITP - Roundabout and Apron</t>
+  </si>
+  <si>
+    <t>ITP - Signage</t>
   </si>
 </sst>
 </file>
@@ -919,62 +958,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
